--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1062,7 +1062,7 @@
   <dimension ref="C3:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1059,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Q10"/>
+  <dimension ref="C3:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1328,7 +1328,7 @@
         <v>1001</v>
       </c>
       <c r="E8" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="1">
         <v>2000</v>
@@ -1372,37 +1372,37 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>10001</v>
+        <v>5001</v>
       </c>
       <c r="E9" s="1">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="1">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I9" s="1">
         <v>0.4</v>
       </c>
       <c r="J9" s="1">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="K9" s="1">
         <v>40</v>
       </c>
       <c r="L9" s="1">
-        <v>10001</v>
+        <v>5001</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>10001</v>
+        <v>5001</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -1419,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="E10" s="1">
-        <v>1000000</v>
+        <v>20000</v>
       </c>
       <c r="F10" s="1">
         <v>40000</v>
@@ -1431,25 +1431,25 @@
         <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="I10" s="1">
         <v>0.5</v>
       </c>
       <c r="J10" s="1">
-        <v>4000000</v>
+        <v>400000</v>
       </c>
       <c r="K10" s="1">
         <v>50</v>
       </c>
       <c r="L10" s="1">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -1459,6 +1459,147 @@
       </c>
       <c r="Q10" s="1">
         <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>350000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>35000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>50001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>50001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>200</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>RiseGold</t>
+  </si>
+  <si>
+    <t>DamageIncrea</t>
   </si>
   <si>
     <t>Exp</t>
@@ -707,10 +710,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Q13"/>
+  <dimension ref="C3:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1080,12 +1086,12 @@
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="14.25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="15" max="16" width="10.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="14.25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17">
+    <row r="3" spans="3:18">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1125,14 +1131,17 @@
       <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:18">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1172,61 +1181,67 @@
       <c r="O4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="R4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="3:17">
+    <row r="5" spans="3:18">
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="3:17">
+    <row r="6" spans="3:18">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1267,13 +1282,16 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <v>100</v>
       </c>
+      <c r="R6" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="3:17">
+    <row r="7" spans="3:18">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1314,13 +1332,16 @@
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>200</v>
       </c>
+      <c r="R7" s="1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:18">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1361,13 +1382,16 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>300</v>
       </c>
+      <c r="R8" s="1">
+        <v>300</v>
+      </c>
     </row>
-    <row r="9" spans="3:17">
+    <row r="9" spans="3:18">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1408,13 +1432,16 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
         <v>400</v>
       </c>
+      <c r="R9" s="1">
+        <v>400</v>
+      </c>
     </row>
-    <row r="10" spans="3:17">
+    <row r="10" spans="3:18">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1455,13 +1482,16 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="1">
         <v>500</v>
       </c>
+      <c r="R10" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:18">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1502,13 +1532,16 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="1">
         <v>700</v>
       </c>
+      <c r="R11" s="1">
+        <v>700</v>
+      </c>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:18">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1549,13 +1582,16 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="1">
         <v>1000</v>
       </c>
+      <c r="R12" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="13" spans="3:17">
+    <row r="13" spans="3:18">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1596,13 +1632,21 @@
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="1">
         <v>2000</v>
       </c>
+      <c r="R13" s="1">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="P5 P3:P4" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,P3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R13"/>
+  <dimension ref="C3:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -1288,7 +1288,8 @@
         <v>100</v>
       </c>
       <c r="R6" s="1">
-        <v>100</v>
+        <f t="shared" ref="R6:R14" si="0">Q6*2</f>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="3:18">
@@ -1302,34 +1303,39 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" ref="F7:F14" si="1">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" ref="H7:H14" si="2">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <v>1000</v>
+        <f t="shared" ref="J7:J14" si="3">E6*K6+50</f>
+        <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" ref="L7:L14" si="4">E6*M6+1</f>
         <v>101</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>101</v>
+        <f t="shared" ref="N7:N14" si="5">E6*O6+1</f>
+        <v>201</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1338,7 +1344,8 @@
         <v>200</v>
       </c>
       <c r="R7" s="1">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="3:18">
@@ -1352,34 +1359,39 @@
         <v>5000</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="I8" s="1">
         <v>0.3</v>
       </c>
       <c r="J8" s="1">
-        <v>20000</v>
+        <f t="shared" si="3"/>
+        <v>20050</v>
       </c>
       <c r="K8" s="1">
         <v>30</v>
       </c>
       <c r="L8" s="1">
+        <f t="shared" si="4"/>
         <v>1001</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>1001</v>
+        <f t="shared" si="5"/>
+        <v>2001</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -1388,7 +1400,8 @@
         <v>300</v>
       </c>
       <c r="R8" s="1">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="3:18">
@@ -1402,34 +1415,39 @@
         <v>10000</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="I9" s="1">
         <v>0.4</v>
       </c>
       <c r="J9" s="1">
-        <v>150000</v>
+        <f t="shared" si="3"/>
+        <v>150050</v>
       </c>
       <c r="K9" s="1">
         <v>40</v>
       </c>
       <c r="L9" s="1">
+        <f t="shared" si="4"/>
         <v>5001</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>5001</v>
+        <f t="shared" si="5"/>
+        <v>10001</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1438,7 +1456,8 @@
         <v>400</v>
       </c>
       <c r="R9" s="1">
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="3:18">
@@ -1452,34 +1471,39 @@
         <v>20000</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="I10" s="1">
         <v>0.5</v>
       </c>
       <c r="J10" s="1">
-        <v>400000</v>
+        <f t="shared" si="3"/>
+        <v>400050</v>
       </c>
       <c r="K10" s="1">
         <v>50</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="4"/>
         <v>10001</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>10001</v>
+        <f t="shared" si="5"/>
+        <v>20001</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" s="1">
         <v>10</v>
@@ -1488,7 +1512,8 @@
         <v>500</v>
       </c>
       <c r="R10" s="1">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="3:18">
@@ -1502,34 +1527,39 @@
         <v>50000</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="G11" s="1">
         <v>7</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="I11" s="1">
         <v>0.7</v>
       </c>
       <c r="J11" s="1">
-        <v>1000000</v>
+        <f t="shared" si="3"/>
+        <v>1000050</v>
       </c>
       <c r="K11" s="1">
         <v>70</v>
       </c>
       <c r="L11" s="1">
+        <f t="shared" si="4"/>
         <v>20001</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>20001</v>
+        <f t="shared" si="5"/>
+        <v>40001</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1">
         <v>20</v>
@@ -1538,7 +1568,8 @@
         <v>700</v>
       </c>
       <c r="R11" s="1">
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
     </row>
     <row r="12" spans="3:18">
@@ -1552,34 +1583,39 @@
         <v>100000</v>
       </c>
       <c r="F12" s="1">
+        <f t="shared" si="1"/>
         <v>350000</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="2"/>
         <v>35000</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>3500000</v>
+        <f t="shared" si="3"/>
+        <v>3500050</v>
       </c>
       <c r="K12" s="1">
         <v>100</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="4"/>
         <v>50001</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>50001</v>
+        <f t="shared" si="5"/>
+        <v>100001</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="1">
         <v>30</v>
@@ -1588,7 +1624,8 @@
         <v>1000</v>
       </c>
       <c r="R12" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="3:18">
@@ -1602,34 +1639,39 @@
         <v>200000</v>
       </c>
       <c r="F13" s="1">
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="G13" s="1">
         <v>20</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
       </c>
       <c r="J13" s="1">
-        <v>10000000</v>
+        <f t="shared" si="3"/>
+        <v>10000050</v>
       </c>
       <c r="K13" s="1">
         <v>200</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="4"/>
         <v>100001</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>100001</v>
+        <f t="shared" si="5"/>
+        <v>200001</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1">
         <v>40</v>
@@ -1638,7 +1680,64 @@
         <v>2000</v>
       </c>
       <c r="R13" s="1">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>400000</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>400000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>40000050</v>
+      </c>
+      <c r="K14" s="1">
+        <v>300</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>200001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>400001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1273,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -1325,17 +1325,17 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L14" si="4">E6*M6+1</f>
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ref="N7:N14" si="5">E6*O6+1</f>
-        <v>201</v>
+        <v>601</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="5"/>
-        <v>2001</v>
+        <v>6001</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -1437,17 +1437,17 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>5001</v>
+        <v>15001</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="5"/>
-        <v>10001</v>
+        <v>30001</v>
       </c>
       <c r="O9" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1493,17 +1493,17 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>10001</v>
+        <v>30001</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="5"/>
-        <v>20001</v>
+        <v>60001</v>
       </c>
       <c r="O10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P10" s="1">
         <v>10</v>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>20001</v>
+        <v>60001</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>40001</v>
+        <v>120001</v>
       </c>
       <c r="O11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P11" s="1">
         <v>20</v>
@@ -1605,17 +1605,17 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>50001</v>
+        <v>150001</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>100001</v>
+        <v>300001</v>
       </c>
       <c r="O12" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P12" s="1">
         <v>30</v>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>100001</v>
+        <v>300001</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>200001</v>
+        <v>600001</v>
       </c>
       <c r="O13" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P13" s="1">
         <v>40</v>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>200001</v>
+        <v>600001</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>400001</v>
+        <v>1200001</v>
       </c>
       <c r="O14" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P14" s="1">
         <v>50</v>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -112,6 +112,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -128,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -169,21 +205,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,28 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +271,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,24 +337,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,18 +385,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,36 +397,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,24 +421,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,12 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +462,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,21 +509,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,148 +565,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,52 +720,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R14"/>
+  <dimension ref="C3:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1279,7 +1279,8 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>6</v>
+        <f t="shared" ref="O6:O15" si="0">M6*3</f>
+        <v>9</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -1288,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R14" si="0">Q6*2</f>
+        <f t="shared" ref="R6:R15" si="1">Q6*2</f>
         <v>200</v>
       </c>
     </row>
@@ -1303,39 +1304,40 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F14" si="1">E6*G6</f>
+        <f t="shared" ref="F7:F14" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H14" si="2">E6*I6</f>
+        <f t="shared" ref="H7:H15" si="3">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J14" si="3">E6*K6+50</f>
+        <f t="shared" ref="J7:J15" si="4">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L14" si="4">E6*M6+1</f>
+        <f t="shared" ref="L7:L15" si="5">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N14" si="5">E6*O6+1</f>
-        <v>601</v>
+        <f t="shared" ref="N7:N15" si="6">E6*O6+1</f>
+        <v>901</v>
       </c>
       <c r="O7" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1344,7 +1346,7 @@
         <v>200</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
@@ -1359,39 +1361,40 @@
         <v>5000</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="I8" s="1">
         <v>0.3</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20050</v>
       </c>
       <c r="K8" s="1">
         <v>30</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>3001</v>
+        <f t="shared" si="5"/>
+        <v>4001</v>
       </c>
       <c r="M8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="5"/>
-        <v>6001</v>
+        <f t="shared" si="6"/>
+        <v>12001</v>
       </c>
       <c r="O8" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -1400,7 +1403,7 @@
         <v>300</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
@@ -1415,49 +1418,50 @@
         <v>10000</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="I9" s="1">
         <v>0.4</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150050</v>
       </c>
       <c r="K9" s="1">
         <v>40</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="4"/>
-        <v>15001</v>
+        <f t="shared" si="5"/>
+        <v>25001</v>
       </c>
       <c r="M9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="5"/>
-        <v>30001</v>
+        <f t="shared" si="6"/>
+        <v>75001</v>
       </c>
       <c r="O9" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="3:18">
@@ -1471,49 +1475,50 @@
         <v>20000</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="I10" s="1">
         <v>0.5</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400050</v>
       </c>
       <c r="K10" s="1">
         <v>50</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="4"/>
-        <v>30001</v>
-      </c>
-      <c r="M10" s="1">
-        <v>3</v>
-      </c>
-      <c r="N10" s="1">
         <f t="shared" si="5"/>
         <v>60001</v>
       </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="6"/>
+        <v>180001</v>
+      </c>
       <c r="O10" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="P10" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="3:18">
@@ -1527,49 +1532,50 @@
         <v>50000</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="G11" s="1">
         <v>7</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="I11" s="1">
         <v>0.7</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000050</v>
       </c>
       <c r="K11" s="1">
         <v>70</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="4"/>
-        <v>60001</v>
+        <f t="shared" si="5"/>
+        <v>140001</v>
       </c>
       <c r="M11" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="5"/>
-        <v>120001</v>
+        <f t="shared" si="6"/>
+        <v>420001</v>
       </c>
       <c r="O11" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="P11" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="1">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>1400</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="3:18">
@@ -1583,49 +1589,50 @@
         <v>100000</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350000</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35000</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3500050</v>
       </c>
       <c r="K12" s="1">
         <v>100</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="4"/>
-        <v>150001</v>
+        <f t="shared" si="5"/>
+        <v>400001</v>
       </c>
       <c r="M12" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="5"/>
-        <v>300001</v>
+        <f t="shared" si="6"/>
+        <v>1200001</v>
       </c>
       <c r="O12" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="P12" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="3:18">
@@ -1639,49 +1646,50 @@
         <v>200000</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="G13" s="1">
         <v>20</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100000</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10000050</v>
       </c>
       <c r="K13" s="1">
         <v>200</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="4"/>
-        <v>300001</v>
+        <f t="shared" si="5"/>
+        <v>900001</v>
       </c>
       <c r="M13" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="5"/>
-        <v>600001</v>
+        <f t="shared" si="6"/>
+        <v>2700001</v>
       </c>
       <c r="O13" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="P13" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <f t="shared" si="1"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="3:18">
@@ -1695,49 +1703,107 @@
         <v>400000</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f>E13*G13</f>
         <v>4000000</v>
       </c>
       <c r="G14" s="1">
         <v>30</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400000</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40000050</v>
       </c>
       <c r="K14" s="1">
         <v>300</v>
       </c>
       <c r="L14" s="1">
+        <f t="shared" si="5"/>
+        <v>2000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>15</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="6"/>
+        <v>6000001</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P14" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>20000</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>400001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>600000</v>
+      </c>
+      <c r="F15" s="1">
+        <f>E14*G14</f>
+        <v>12000000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>1200000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>600001</v>
-      </c>
-      <c r="M14" s="1">
-        <v>3</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="5"/>
-        <v>1200001</v>
-      </c>
-      <c r="O14" s="1">
-        <v>6</v>
-      </c>
-      <c r="P14" s="1">
+        <v>120000050</v>
+      </c>
+      <c r="K15" s="1">
+        <v>400</v>
+      </c>
+      <c r="L15" s="1">
+        <f>E14*M14+1</f>
+        <v>6000001</v>
+      </c>
+      <c r="M15" s="1">
         <v>50</v>
       </c>
-      <c r="Q14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="N15" s="1">
+        <f t="shared" si="6"/>
+        <v>18000001</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>150</v>
+      </c>
+      <c r="P15" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>30000</v>
+      </c>
+      <c r="R15" s="1">
+        <f>Q15*2</f>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1304,7 +1304,7 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F14" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F15" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
@@ -1703,7 +1703,7 @@
         <v>400000</v>
       </c>
       <c r="F14" s="1">
-        <f>E13*G13</f>
+        <f t="shared" si="2"/>
         <v>4000000</v>
       </c>
       <c r="G14" s="1">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="15" spans="3:18">
       <c r="C15" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>400001</v>
@@ -1760,7 +1760,7 @@
         <v>600000</v>
       </c>
       <c r="F15" s="1">
-        <f>E14*G14</f>
+        <f t="shared" si="2"/>
         <v>12000000</v>
       </c>
       <c r="G15" s="1">
@@ -1781,7 +1781,7 @@
         <v>400</v>
       </c>
       <c r="L15" s="1">
-        <f>E14*M14+1</f>
+        <f t="shared" si="5"/>
         <v>6000001</v>
       </c>
       <c r="M15" s="1">
@@ -1802,7 +1802,7 @@
         <v>30000</v>
       </c>
       <c r="R15" s="1">
-        <f>Q15*2</f>
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R15"/>
+  <dimension ref="C3:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O15" si="0">M6*3</f>
+        <f t="shared" ref="O6:O16" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1289,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R15" si="1">Q6*2</f>
+        <f t="shared" ref="R6:R16" si="1">Q6*2</f>
         <v>200</v>
       </c>
     </row>
@@ -1304,35 +1304,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F15" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F16" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H15" si="3">E6*I6</f>
+        <f t="shared" ref="H7:H16" si="3">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J15" si="4">E6*K6+50</f>
+        <f t="shared" ref="J7:J16" si="4">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L15" si="5">E6*M6+1</f>
+        <f t="shared" ref="L7:L16" si="5">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N15" si="6">E6*O6+1</f>
+        <f t="shared" ref="N7:N16" si="6">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -1804,6 +1804,63 @@
       <c r="R15" s="1">
         <f t="shared" si="1"/>
         <v>60000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>600001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>24000000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>2400000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="4"/>
+        <v>240000050</v>
+      </c>
+      <c r="K16" s="1">
+        <v>500</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="5"/>
+        <v>30000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>75</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="6"/>
+        <v>90000001</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="P16" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>60000</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="1"/>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="16" spans="3:18">
       <c r="C16" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>600001</v>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -112,34 +112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -156,6 +128,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -165,41 +176,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,7 +229,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,49 +271,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,121 +409,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,21 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,6 +494,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,148 +565,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,52 +720,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1785,15 +1785,15 @@
         <v>6000001</v>
       </c>
       <c r="M15" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="6"/>
         <v>18000001</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>M15*3</f>
+        <v>60</v>
       </c>
       <c r="P15" s="1">
         <v>35</v>
@@ -1839,18 +1839,18 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="5"/>
-        <v>30000001</v>
+        <v>12000001</v>
       </c>
       <c r="M16" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="6"/>
-        <v>90000001</v>
+        <v>36000001</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="P16" s="1">
         <v>40</v>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -112,6 +112,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -128,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -169,21 +205,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,28 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +271,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,24 +337,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,18 +385,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,36 +397,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,24 +421,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,12 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +462,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,21 +509,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,148 +565,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,52 +720,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R16"/>
+  <dimension ref="C3:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O16" si="0">M6*3</f>
+        <f t="shared" ref="O6:O17" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1289,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R16" si="1">Q6*2</f>
+        <f t="shared" ref="R6:R17" si="1">Q6*2</f>
         <v>200</v>
       </c>
     </row>
@@ -1304,35 +1304,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F16" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F17" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H16" si="3">E6*I6</f>
+        <f t="shared" ref="H7:H17" si="3">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J16" si="4">E6*K6+50</f>
+        <f t="shared" ref="J7:J17" si="4">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L16" si="5">E6*M6+1</f>
+        <f t="shared" ref="L7:L17" si="5">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N16" si="6">E6*O6+1</f>
+        <f t="shared" ref="N7:N17" si="6">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -1792,7 +1792,7 @@
         <v>18000001</v>
       </c>
       <c r="O15" s="1">
-        <f>M15*3</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P15" s="1">
@@ -1861,6 +1861,63 @@
       <c r="R16" s="1">
         <f t="shared" si="1"/>
         <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>50000000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>5000000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="4"/>
+        <v>500000050</v>
+      </c>
+      <c r="K17" s="1">
+        <v>600</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="5"/>
+        <v>25000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>30</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="6"/>
+        <v>75000001</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="P17" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="1"/>
+        <v>140000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -112,34 +112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -156,6 +128,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -165,41 +176,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,7 +229,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,49 +271,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,121 +409,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,21 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,6 +494,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,148 +565,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,52 +720,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R17"/>
+  <dimension ref="C3:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O17" si="0">M6*3</f>
+        <f t="shared" ref="O6:O18" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1289,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R17" si="1">Q6*2</f>
+        <f t="shared" ref="R6:R18" si="1">Q6*2</f>
         <v>200</v>
       </c>
     </row>
@@ -1304,35 +1304,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F17" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F18" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H17" si="3">E6*I6</f>
+        <f t="shared" ref="H7:H18" si="3">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J17" si="4">E6*K6+50</f>
+        <f t="shared" ref="J7:J18" si="4">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L17" si="5">E6*M6+1</f>
+        <f t="shared" ref="L7:L18" si="5">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N17" si="6">E6*O6+1</f>
+        <f t="shared" ref="N7:N18" si="6">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -1918,6 +1918,63 @@
       <c r="R17" s="1">
         <f t="shared" si="1"/>
         <v>140000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>120000000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>12000000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="4"/>
+        <v>1200000050</v>
+      </c>
+      <c r="K18" s="1">
+        <v>700</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="5"/>
+        <v>60000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>35</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="6"/>
+        <v>180000001</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="P18" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>80000</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="1"/>
+        <v>160000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R18"/>
+  <dimension ref="C3:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1082,12 +1082,12 @@
     <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
     <col min="15" max="16" width="10.625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="14.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O18" si="0">M6*3</f>
+        <f t="shared" ref="O6:O19" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1289,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R18" si="1">Q6*2</f>
+        <f t="shared" ref="R6:R19" si="1">Q6*2</f>
         <v>200</v>
       </c>
     </row>
@@ -1304,35 +1304,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F18" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F19" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H18" si="3">E6*I6</f>
+        <f t="shared" ref="H7:H19" si="3">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J18" si="4">E6*K6+50</f>
+        <f t="shared" ref="J7:J19" si="4">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L18" si="5">E6*M6+1</f>
+        <f t="shared" ref="L7:L19" si="5">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N18" si="6">E6*O6+1</f>
+        <f t="shared" ref="N7:N19" si="6">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -1878,21 +1878,21 @@
         <v>50000000</v>
       </c>
       <c r="G17" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="3"/>
         <v>5000000</v>
       </c>
       <c r="I17" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
         <v>500000050</v>
       </c>
       <c r="K17" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="5"/>
@@ -1932,24 +1932,24 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>120000000</v>
+        <v>200000000</v>
       </c>
       <c r="G18" s="1">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="3"/>
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="I18" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>1200000050</v>
+        <v>2000000050</v>
       </c>
       <c r="K18" s="1">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="5"/>
@@ -1975,6 +1975,62 @@
       <c r="R18" s="1">
         <f t="shared" si="1"/>
         <v>160000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>600000000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>400</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>60000000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>40</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="4"/>
+        <v>6000000050</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="5"/>
+        <v>105000001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="6"/>
+        <v>315000001</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="P19" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2027,10 +2027,10 @@
         <v>60</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R19"/>
+  <dimension ref="C3:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1081,7 +1081,7 @@
     <col min="6" max="7" width="10.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O19" si="0">M6*3</f>
+        <f t="shared" ref="O6:O20" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1304,35 +1304,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F19" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F20" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H19" si="3">E6*I6</f>
+        <f t="shared" ref="H7:H20" si="3">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J19" si="4">E6*K6+50</f>
+        <f t="shared" ref="J7:J20" si="4">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L19" si="5">E6*M6+1</f>
+        <f t="shared" ref="L7:L20" si="5">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N19" si="6">E6*O6+1</f>
+        <f t="shared" ref="N7:N20" si="6">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -1707,21 +1707,21 @@
         <v>4000000</v>
       </c>
       <c r="G14" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="3"/>
         <v>400000</v>
       </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
         <v>40000050</v>
       </c>
       <c r="K14" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
@@ -1761,24 +1761,24 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="G15" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="3"/>
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>120000050</v>
+        <v>200000050</v>
       </c>
       <c r="K15" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="5"/>
@@ -1818,24 +1818,24 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>24000000</v>
+        <v>60000000</v>
       </c>
       <c r="G16" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="3"/>
-        <v>2400000</v>
+        <v>6000000</v>
       </c>
       <c r="I16" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>240000050</v>
+        <v>600000050</v>
       </c>
       <c r="K16" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="5"/>
@@ -1875,24 +1875,24 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
       <c r="G17" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="3"/>
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="I17" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
-        <v>500000050</v>
+        <v>2000000050</v>
       </c>
       <c r="K17" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="5"/>
@@ -1932,24 +1932,24 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>200000000</v>
+        <v>800000000</v>
       </c>
       <c r="G18" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="3"/>
-        <v>20000000</v>
+        <v>80000000</v>
       </c>
       <c r="I18" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>2000000050</v>
+        <v>8000000050</v>
       </c>
       <c r="K18" s="1">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="5"/>
@@ -1989,24 +1989,24 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>600000000</v>
+        <v>1800000000</v>
       </c>
       <c r="G19" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="3"/>
-        <v>60000000</v>
+        <v>180000000</v>
       </c>
       <c r="I19" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>6000000050</v>
+        <v>18000000050</v>
       </c>
       <c r="K19" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="5"/>
@@ -2030,6 +2030,62 @@
         <v>100000</v>
       </c>
       <c r="R19" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>3200000000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>320000000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="4"/>
+        <v>32000000050</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="5"/>
+        <v>160000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>50</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="6"/>
+        <v>480000001</v>
+      </c>
+      <c r="O20" s="1">
+        <f>M20*3</f>
+        <v>150</v>
+      </c>
+      <c r="P20" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="R20" s="1">
         <v>200000</v>
       </c>
     </row>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1065,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R20"/>
+  <dimension ref="C3:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O20" si="0">M6*3</f>
+        <f t="shared" ref="O6:O21" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1304,35 +1304,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F20" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F21" si="2">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H20" si="3">E6*I6</f>
+        <f t="shared" ref="H7:H21" si="3">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J20" si="4">E6*K6+50</f>
+        <f t="shared" ref="J7:J21" si="4">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L20" si="5">E6*M6+1</f>
+        <f t="shared" ref="L7:L21" si="5">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N20" si="6">E6*O6+1</f>
+        <f t="shared" ref="N7:N21" si="6">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -2024,7 +2024,7 @@
         <v>120</v>
       </c>
       <c r="P19" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="1">
         <v>100000</v>
@@ -2076,16 +2076,72 @@
         <v>480000001</v>
       </c>
       <c r="O20" s="1">
-        <f>M20*3</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="P20" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="1">
         <v>100000</v>
       </c>
       <c r="R20" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>5000000000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>500000000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>200</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="4"/>
+        <v>50000000050</v>
+      </c>
+      <c r="K21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="5"/>
+        <v>250000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>60</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="6"/>
+        <v>750000001</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="P21" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="R21" s="1">
         <v>200000</v>
       </c>
     </row>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1086,8 +1086,8 @@
     <col min="13" max="13" width="10.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
     <col min="15" max="16" width="10.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1289,8 +1289,8 @@
         <v>100</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R19" si="1">Q6*2</f>
-        <v>200</v>
+        <f>Q6*3</f>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="3:18">
@@ -1304,35 +1304,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F21" si="2">E6*G6</f>
+        <f t="shared" ref="F7:F21" si="1">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H21" si="3">E6*I6</f>
+        <f t="shared" ref="H7:H21" si="2">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J21" si="4">E6*K6+50</f>
+        <f t="shared" ref="J7:J21" si="3">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L21" si="5">E6*M6+1</f>
+        <f t="shared" ref="L7:L21" si="4">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N21" si="6">E6*O6+1</f>
+        <f t="shared" ref="N7:N21" si="5">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -1343,11 +1343,12 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>200</v>
+        <f t="shared" ref="Q7:Q21" si="6">E6*M6*100</f>
+        <v>30000</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f t="shared" ref="R7:R21" si="7">E6*O6*100</f>
+        <v>90000</v>
       </c>
     </row>
     <row r="8" spans="3:18">
@@ -1361,35 +1362,35 @@
         <v>5000</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="I8" s="1">
         <v>0.3</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20050</v>
       </c>
       <c r="K8" s="1">
         <v>30</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4001</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12001</v>
       </c>
       <c r="O8" s="1">
@@ -1400,11 +1401,12 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>300</v>
+        <f t="shared" si="6"/>
+        <v>400000</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <f t="shared" si="7"/>
+        <v>1200000</v>
       </c>
     </row>
     <row r="9" spans="3:18">
@@ -1418,35 +1420,35 @@
         <v>10000</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="I9" s="1">
         <v>0.4</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150050</v>
       </c>
       <c r="K9" s="1">
         <v>40</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25001</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75001</v>
       </c>
       <c r="O9" s="1">
@@ -1457,11 +1459,12 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>500</v>
+        <f t="shared" si="6"/>
+        <v>2500000</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="7"/>
+        <v>7500000</v>
       </c>
     </row>
     <row r="10" spans="3:18">
@@ -1475,35 +1478,35 @@
         <v>20000</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="I10" s="1">
         <v>0.5</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>400050</v>
       </c>
       <c r="K10" s="1">
         <v>50</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60001</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180001</v>
       </c>
       <c r="O10" s="1">
@@ -1514,11 +1517,12 @@
         <v>5</v>
       </c>
       <c r="Q10" s="1">
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>6000000</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="7"/>
+        <v>18000000</v>
       </c>
     </row>
     <row r="11" spans="3:18">
@@ -1532,35 +1536,35 @@
         <v>50000</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="G11" s="1">
         <v>7</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="I11" s="1">
         <v>0.7</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1000050</v>
       </c>
       <c r="K11" s="1">
         <v>70</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>140001</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>420001</v>
       </c>
       <c r="O11" s="1">
@@ -1571,11 +1575,12 @@
         <v>15</v>
       </c>
       <c r="Q11" s="1">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>14000000</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="7"/>
+        <v>42000000</v>
       </c>
     </row>
     <row r="12" spans="3:18">
@@ -1589,35 +1594,35 @@
         <v>100000</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>350000</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35000</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3500050</v>
       </c>
       <c r="K12" s="1">
         <v>100</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>400001</v>
       </c>
       <c r="M12" s="1">
         <v>9</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1200001</v>
       </c>
       <c r="O12" s="1">
@@ -1628,11 +1633,12 @@
         <v>20</v>
       </c>
       <c r="Q12" s="1">
-        <v>5000</v>
+        <f t="shared" si="6"/>
+        <v>40000000</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="7"/>
+        <v>120000000</v>
       </c>
     </row>
     <row r="13" spans="3:18">
@@ -1646,35 +1652,35 @@
         <v>200000</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="G13" s="1">
         <v>20</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10000050</v>
       </c>
       <c r="K13" s="1">
         <v>200</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>900001</v>
       </c>
       <c r="M13" s="1">
         <v>10</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2700001</v>
       </c>
       <c r="O13" s="1">
@@ -1685,11 +1691,12 @@
         <v>25</v>
       </c>
       <c r="Q13" s="1">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>90000000</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <f t="shared" si="7"/>
+        <v>270000000</v>
       </c>
     </row>
     <row r="14" spans="3:18">
@@ -1703,35 +1710,35 @@
         <v>400000</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="G14" s="1">
         <v>50</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40000050</v>
       </c>
       <c r="K14" s="1">
         <v>500</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000001</v>
       </c>
       <c r="M14" s="1">
         <v>15</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6000001</v>
       </c>
       <c r="O14" s="1">
@@ -1742,11 +1749,12 @@
         <v>30</v>
       </c>
       <c r="Q14" s="1">
-        <v>20000</v>
+        <f t="shared" si="6"/>
+        <v>200000000</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="1"/>
-        <v>40000</v>
+        <f t="shared" si="7"/>
+        <v>600000000</v>
       </c>
     </row>
     <row r="15" spans="3:18">
@@ -1760,35 +1768,35 @@
         <v>600000</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20000000</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000000</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200000050</v>
       </c>
       <c r="K15" s="1">
         <v>1000</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6000001</v>
       </c>
       <c r="M15" s="1">
         <v>20</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18000001</v>
       </c>
       <c r="O15" s="1">
@@ -1799,11 +1807,12 @@
         <v>35</v>
       </c>
       <c r="Q15" s="1">
-        <v>30000</v>
+        <f t="shared" si="6"/>
+        <v>600000000</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="1"/>
-        <v>60000</v>
+        <f t="shared" si="7"/>
+        <v>1800000000</v>
       </c>
     </row>
     <row r="16" spans="3:18">
@@ -1817,35 +1826,35 @@
         <v>1000000</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60000000</v>
       </c>
       <c r="G16" s="1">
         <v>200</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6000000</v>
       </c>
       <c r="I16" s="1">
         <v>20</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>600000050</v>
       </c>
       <c r="K16" s="1">
         <v>2000</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12000001</v>
       </c>
       <c r="M16" s="1">
         <v>25</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36000001</v>
       </c>
       <c r="O16" s="1">
@@ -1856,11 +1865,12 @@
         <v>40</v>
       </c>
       <c r="Q16" s="1">
-        <v>60000</v>
+        <f t="shared" si="6"/>
+        <v>1200000000</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="1"/>
-        <v>120000</v>
+        <f t="shared" si="7"/>
+        <v>3600000000</v>
       </c>
     </row>
     <row r="17" spans="3:18">
@@ -1874,35 +1884,35 @@
         <v>2000000</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200000000</v>
       </c>
       <c r="G17" s="1">
         <v>400</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20000000</v>
       </c>
       <c r="I17" s="1">
         <v>40</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2000000050</v>
       </c>
       <c r="K17" s="1">
         <v>4000</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25000001</v>
       </c>
       <c r="M17" s="1">
         <v>30</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75000001</v>
       </c>
       <c r="O17" s="1">
@@ -1913,11 +1923,12 @@
         <v>45</v>
       </c>
       <c r="Q17" s="1">
-        <v>70000</v>
+        <f t="shared" si="6"/>
+        <v>2500000000</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="1"/>
-        <v>140000</v>
+        <f t="shared" si="7"/>
+        <v>7500000000</v>
       </c>
     </row>
     <row r="18" spans="3:18">
@@ -1931,35 +1942,35 @@
         <v>3000000</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>800000000</v>
       </c>
       <c r="G18" s="1">
         <v>600</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80000000</v>
       </c>
       <c r="I18" s="1">
         <v>60</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8000000050</v>
       </c>
       <c r="K18" s="1">
         <v>6000</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60000001</v>
       </c>
       <c r="M18" s="1">
         <v>35</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180000001</v>
       </c>
       <c r="O18" s="1">
@@ -1970,11 +1981,12 @@
         <v>50</v>
       </c>
       <c r="Q18" s="1">
-        <v>80000</v>
+        <f t="shared" si="6"/>
+        <v>6000000000</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="1"/>
-        <v>160000</v>
+        <f t="shared" si="7"/>
+        <v>18000000000</v>
       </c>
     </row>
     <row r="19" spans="3:18">
@@ -1988,35 +2000,35 @@
         <v>4000000</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1800000000</v>
       </c>
       <c r="G19" s="1">
         <v>800</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180000000</v>
       </c>
       <c r="I19" s="1">
         <v>80</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18000000050</v>
       </c>
       <c r="K19" s="1">
         <v>8000</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>105000001</v>
       </c>
       <c r="M19" s="1">
         <v>40</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>315000001</v>
       </c>
       <c r="O19" s="1">
@@ -2027,10 +2039,12 @@
         <v>55</v>
       </c>
       <c r="Q19" s="1">
-        <v>100000</v>
+        <f t="shared" si="6"/>
+        <v>10500000000</v>
       </c>
       <c r="R19" s="1">
-        <v>200000</v>
+        <f t="shared" si="7"/>
+        <v>31500000000</v>
       </c>
     </row>
     <row r="20" spans="3:18">
@@ -2044,35 +2058,35 @@
         <v>5000000</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3200000000</v>
       </c>
       <c r="G20" s="1">
         <v>1000</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>320000000</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32000000050</v>
       </c>
       <c r="K20" s="1">
         <v>10000</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>160000001</v>
       </c>
       <c r="M20" s="1">
         <v>50</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>480000001</v>
       </c>
       <c r="O20" s="1">
@@ -2083,10 +2097,12 @@
         <v>60</v>
       </c>
       <c r="Q20" s="1">
-        <v>100000</v>
+        <f t="shared" si="6"/>
+        <v>16000000000</v>
       </c>
       <c r="R20" s="1">
-        <v>200000</v>
+        <f t="shared" si="7"/>
+        <v>48000000000</v>
       </c>
     </row>
     <row r="21" spans="3:18">
@@ -2100,35 +2116,35 @@
         <v>6000000</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5000000000</v>
       </c>
       <c r="G21" s="1">
         <v>2000</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>500000000</v>
       </c>
       <c r="I21" s="1">
         <v>200</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50000000050</v>
       </c>
       <c r="K21" s="1">
         <v>20000</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>250000001</v>
       </c>
       <c r="M21" s="1">
         <v>60</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>750000001</v>
       </c>
       <c r="O21" s="1">
@@ -2139,10 +2155,12 @@
         <v>65</v>
       </c>
       <c r="Q21" s="1">
-        <v>100000</v>
+        <f t="shared" si="6"/>
+        <v>25000000000</v>
       </c>
       <c r="R21" s="1">
-        <v>200000</v>
+        <f t="shared" si="7"/>
+        <v>75000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1343,12 +1343,12 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ref="Q7:Q21" si="6">E6*M6*100</f>
-        <v>30000</v>
+        <f t="shared" ref="Q7:Q21" si="6">E6*M6*5</f>
+        <v>1500</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ref="R7:R21" si="7">E6*O6*100</f>
-        <v>90000</v>
+        <f t="shared" ref="R7:R21" si="7">E6*O6*5</f>
+        <v>4500</v>
       </c>
     </row>
     <row r="8" spans="3:18">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="6"/>
-        <v>400000</v>
+        <v>20000</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="7"/>
-        <v>1200000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="9" spans="3:18">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="6"/>
-        <v>2500000</v>
+        <v>125000</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="7"/>
-        <v>7500000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="10" spans="3:18">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="6"/>
-        <v>6000000</v>
+        <v>300000</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="7"/>
-        <v>18000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="11" spans="3:18">
@@ -1576,11 +1576,11 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="6"/>
-        <v>14000000</v>
+        <v>700000</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="7"/>
-        <v>42000000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="12" spans="3:18">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="6"/>
-        <v>40000000</v>
+        <v>2000000</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="7"/>
-        <v>120000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="13" spans="3:18">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="6"/>
-        <v>90000000</v>
+        <v>4500000</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="7"/>
-        <v>270000000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="14" spans="3:18">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="6"/>
-        <v>200000000</v>
+        <v>10000000</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="7"/>
-        <v>600000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="15" spans="3:18">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="6"/>
-        <v>600000000</v>
+        <v>30000000</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="7"/>
-        <v>1800000000</v>
+        <v>90000000</v>
       </c>
     </row>
     <row r="16" spans="3:18">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="6"/>
-        <v>1200000000</v>
+        <v>60000000</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="7"/>
-        <v>3600000000</v>
+        <v>180000000</v>
       </c>
     </row>
     <row r="17" spans="3:18">
@@ -1924,11 +1924,11 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="6"/>
-        <v>2500000000</v>
+        <v>125000000</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="7"/>
-        <v>7500000000</v>
+        <v>375000000</v>
       </c>
     </row>
     <row r="18" spans="3:18">
@@ -1982,11 +1982,11 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="6"/>
-        <v>6000000000</v>
+        <v>300000000</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="7"/>
-        <v>18000000000</v>
+        <v>900000000</v>
       </c>
     </row>
     <row r="19" spans="3:18">
@@ -2040,11 +2040,11 @@
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="6"/>
-        <v>10500000000</v>
+        <v>525000000</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="7"/>
-        <v>31500000000</v>
+        <v>1575000000</v>
       </c>
     </row>
     <row r="20" spans="3:18">
@@ -2098,11 +2098,11 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="6"/>
-        <v>16000000000</v>
+        <v>800000000</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="7"/>
-        <v>48000000000</v>
+        <v>2400000000</v>
       </c>
     </row>
     <row r="21" spans="3:18">
@@ -2156,11 +2156,11 @@
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="6"/>
-        <v>25000000000</v>
+        <v>1250000000</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="7"/>
-        <v>75000000000</v>
+        <v>3750000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1343,12 +1343,12 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ref="Q7:Q21" si="6">E6*M6*5</f>
-        <v>1500</v>
+        <f t="shared" ref="Q7:Q21" si="6">E6*M6*10</f>
+        <v>3000</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ref="R7:R21" si="7">E6*O6*5</f>
-        <v>4500</v>
+        <f t="shared" ref="R7:R21" si="7">E6*O6*10</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="3:18">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="7"/>
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="9" spans="3:18">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="6"/>
-        <v>125000</v>
+        <v>250000</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="7"/>
-        <v>375000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="10" spans="3:18">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="6"/>
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="7"/>
-        <v>900000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="11" spans="3:18">
@@ -1576,11 +1576,11 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="6"/>
-        <v>700000</v>
+        <v>1400000</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="7"/>
-        <v>2100000</v>
+        <v>4200000</v>
       </c>
     </row>
     <row r="12" spans="3:18">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="6"/>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="7"/>
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="13" spans="3:18">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="6"/>
-        <v>4500000</v>
+        <v>9000000</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="7"/>
-        <v>13500000</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="14" spans="3:18">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="6"/>
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="7"/>
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="15" spans="3:18">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="6"/>
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="7"/>
-        <v>90000000</v>
+        <v>180000000</v>
       </c>
     </row>
     <row r="16" spans="3:18">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="6"/>
-        <v>60000000</v>
+        <v>120000000</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="7"/>
-        <v>180000000</v>
+        <v>360000000</v>
       </c>
     </row>
     <row r="17" spans="3:18">
@@ -1924,11 +1924,11 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="6"/>
-        <v>125000000</v>
+        <v>250000000</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="7"/>
-        <v>375000000</v>
+        <v>750000000</v>
       </c>
     </row>
     <row r="18" spans="3:18">
@@ -1982,11 +1982,11 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="6"/>
-        <v>300000000</v>
+        <v>600000000</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="7"/>
-        <v>900000000</v>
+        <v>1800000000</v>
       </c>
     </row>
     <row r="19" spans="3:18">
@@ -2040,11 +2040,11 @@
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="6"/>
-        <v>525000000</v>
+        <v>1050000000</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="7"/>
-        <v>1575000000</v>
+        <v>3150000000</v>
       </c>
     </row>
     <row r="20" spans="3:18">
@@ -2098,11 +2098,11 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="6"/>
-        <v>800000000</v>
+        <v>1600000000</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="7"/>
-        <v>2400000000</v>
+        <v>4800000000</v>
       </c>
     </row>
     <row r="21" spans="3:18">
@@ -2156,11 +2156,11 @@
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="6"/>
-        <v>1250000000</v>
+        <v>2500000000</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="7"/>
-        <v>3750000000</v>
+        <v>7500000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="C3:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2113,7 +2113,7 @@
         <v>5000001</v>
       </c>
       <c r="E21" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1065,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R21"/>
+  <dimension ref="C3:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1084,7 +1097,7 @@
     <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
     <col min="15" max="16" width="10.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.875" style="1" customWidth="1"/>
@@ -1279,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O21" si="0">M6*3</f>
+        <f t="shared" ref="O6:O22" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1304,35 +1317,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F21" si="1">E6*G6</f>
+        <f t="shared" ref="F7:F22" si="1">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H21" si="2">E6*I6</f>
+        <f t="shared" ref="H7:H22" si="2">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J21" si="3">E6*K6+50</f>
+        <f t="shared" ref="J7:J22" si="3">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L21" si="4">E6*M6+1</f>
+        <f t="shared" ref="L7:L22" si="4">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N21" si="5">E6*O6+1</f>
+        <f t="shared" ref="N7:N22" si="5">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -1343,11 +1356,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ref="Q7:Q21" si="6">E6*M6*10</f>
+        <f t="shared" ref="Q7:Q22" si="6">E6*M6*10</f>
         <v>3000</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ref="R7:R21" si="7">E6*O6*10</f>
+        <f t="shared" ref="R7:R22" si="7">E6*O6*10</f>
         <v>9000</v>
       </c>
     </row>
@@ -2161,6 +2174,64 @@
       <c r="R21" s="1">
         <f t="shared" si="7"/>
         <v>7500000000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>16000000000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>200</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>160000000050</v>
+      </c>
+      <c r="K22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>480000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="5"/>
+        <v>1440000001</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="P22" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>E21*M21*7.5</f>
+        <v>3600000000</v>
+      </c>
+      <c r="R22" s="1">
+        <f>E21*O21*7.5</f>
+        <v>10800000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="C3:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2184,7 +2184,7 @@
         <v>8000001</v>
       </c>
       <c r="E22" s="1">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1078,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R22"/>
+  <dimension ref="C3:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O22" si="0">M6*3</f>
+        <f t="shared" ref="O6:O23" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1317,35 +1317,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F22" si="1">E6*G6</f>
+        <f t="shared" ref="F7:F23" si="1">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H22" si="2">E6*I6</f>
+        <f t="shared" ref="H7:H23" si="2">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J22" si="3">E6*K6+50</f>
+        <f t="shared" ref="J7:J23" si="3">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L22" si="4">E6*M6+1</f>
+        <f t="shared" ref="L7:L23" si="4">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N22" si="5">E6*O6+1</f>
+        <f t="shared" ref="N7:N23" si="5">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -2191,21 +2191,21 @@
         <v>16000000000</v>
       </c>
       <c r="G22" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
         <v>1600000000</v>
       </c>
       <c r="I22" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="3"/>
         <v>160000000050</v>
       </c>
       <c r="K22" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="4"/>
@@ -2223,7 +2223,7 @@
         <v>180</v>
       </c>
       <c r="P22" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="1">
         <f>E21*M21*7.5</f>
@@ -2232,6 +2232,64 @@
       <c r="R22" s="1">
         <f>E21*O21*7.5</f>
         <v>10800000000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>14000000</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>48000000000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8000</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>4800000000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>800</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>480000000050</v>
+      </c>
+      <c r="K23" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="4"/>
+        <v>720000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>60</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="5"/>
+        <v>2160000001</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="P23" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>E22*M22*7.5</f>
+        <v>5400000000</v>
+      </c>
+      <c r="R23" s="1">
+        <f>E22*O22*7.5</f>
+        <v>16200000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="C3:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2242,7 +2242,7 @@
         <v>12000001</v>
       </c>
       <c r="E23" s="1">
-        <v>14000000</v>
+        <v>16000000</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>

--- a/Excel/TowerConfig.xlsx
+++ b/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1078,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R23"/>
+  <dimension ref="C3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O23" si="0">M6*3</f>
+        <f t="shared" ref="O6:O24" si="0">M6*3</f>
         <v>9</v>
       </c>
       <c r="P6" s="1">
@@ -1317,35 +1317,35 @@
         <v>1000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F23" si="1">E6*G6</f>
+        <f t="shared" ref="F7:F24" si="1">E6*G6</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H23" si="2">E6*I6</f>
+        <f t="shared" ref="H7:H24" si="2">E6*I6</f>
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J23" si="3">E6*K6+50</f>
+        <f t="shared" ref="J7:J24" si="3">E6*K6+50</f>
         <v>1050</v>
       </c>
       <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L23" si="4">E6*M6+1</f>
+        <f t="shared" ref="L7:L24" si="4">E6*M6+1</f>
         <v>301</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N23" si="5">E6*O6+1</f>
+        <f t="shared" ref="N7:N24" si="5">E6*O6+1</f>
         <v>901</v>
       </c>
       <c r="O7" s="1">
@@ -2226,11 +2226,11 @@
         <v>75</v>
       </c>
       <c r="Q22" s="1">
-        <f>E21*M21*7.5</f>
+        <f t="shared" ref="Q22:Q24" si="8">E21*M21*7.5</f>
         <v>3600000000</v>
       </c>
       <c r="R22" s="1">
-        <f>E21*O21*7.5</f>
+        <f t="shared" ref="R22:R24" si="9">E21*O21*7.5</f>
         <v>10800000000</v>
       </c>
     </row>
@@ -2284,12 +2284,70 @@
         <v>85</v>
       </c>
       <c r="Q23" s="1">
-        <f>E22*M22*7.5</f>
+        <f t="shared" si="8"/>
         <v>5400000000</v>
       </c>
       <c r="R23" s="1">
-        <f>E22*O22*7.5</f>
+        <f t="shared" si="9"/>
         <v>16200000000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>128000000000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8000</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>12800000000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>800</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="3"/>
+        <v>1280000000050</v>
+      </c>
+      <c r="K24" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="4"/>
+        <v>960000001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>70</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="5"/>
+        <v>2880000001</v>
+      </c>
+      <c r="O24" s="1">
+        <f>M24*3</f>
+        <v>210</v>
+      </c>
+      <c r="P24" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="8"/>
+        <v>7200000000</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="9"/>
+        <v>21600000000</v>
       </c>
     </row>
   </sheetData>
